--- a/PythonNode.xlsx
+++ b/PythonNode.xlsx
@@ -7,18 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>a</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,6 +65,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>188495</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>27571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1143000"/>
+          <a:ext cx="16038095" cy="8028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,20 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>